--- a/TNR_PREJDD/PREJDD.AC.CMR.xlsx
+++ b/TNR_PREJDD/PREJDD.AC.CMR.xlsx
@@ -96,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -117,6 +117,12 @@
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -176,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -187,14 +193,15 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="1" numFmtId="49" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
@@ -1478,89 +1485,89 @@
       <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
@@ -3010,54 +3017,54 @@
       <c r="A1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="10"/>
+      <c r="A2" s="11"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10"/>
+      <c r="A8" s="11"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>

--- a/TNR_PREJDD/PREJDD.AC.CMR.xlsx
+++ b/TNR_PREJDD/PREJDD.AC.CMR.xlsx
@@ -10,8 +10,8 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjCBxvq6H4HgPOO4yaG6A98CF25ng=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="hhQ5iDtnipWX5opaHmZFCB7Z4SfRTTj2SgmWoPiwcto="/>
     </ext>
   </extLst>
 </workbook>
@@ -77,10 +77,10 @@
     <t>CMR.UPD.RO.FOU.001.MAJ.01</t>
   </si>
   <si>
-    <t>RO.FOU.004.SUP.01</t>
+    <t>RO.FOU.001.SUP.01</t>
   </si>
   <si>
-    <t>CMR.RO.FOU.004.SUP.01</t>
+    <t>CMR.RO.FOU.001.SUP.01</t>
   </si>
   <si>
     <t>CAS_DE_TEST</t>
@@ -182,7 +182,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -203,6 +203,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="3" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -1475,7 +1481,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.0"/>
-    <col customWidth="1" min="2" max="3" width="20.88"/>
+    <col customWidth="1" min="2" max="2" width="31.75"/>
+    <col customWidth="1" min="3" max="3" width="28.5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
@@ -1556,18 +1563,18 @@
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2"/>
@@ -3046,25 +3053,25 @@
       <c r="Z1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2"/>
